--- a/Datasets/Final prior data.xlsx
+++ b/Datasets/Final prior data.xlsx
@@ -1,206 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Breastfeeding_Duration_Analyasis\Datasets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41226951-551C-465B-A788-E8B57B27649F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
-  <si>
-    <t>Variable name</t>
-  </si>
-  <si>
-    <t>Data Category</t>
-  </si>
-  <si>
-    <t>HR.Fixed</t>
-  </si>
-  <si>
-    <t>95% CI F</t>
-  </si>
-  <si>
-    <t>LCI.Fixed</t>
-  </si>
-  <si>
-    <t>UCI.Fixed</t>
-  </si>
-  <si>
-    <t>HR.Random</t>
-  </si>
-  <si>
-    <t>95% CI R</t>
-  </si>
-  <si>
-    <t>LCI.Random</t>
-  </si>
-  <si>
-    <t>UCI.Random</t>
-  </si>
-  <si>
-    <t>beta.Fixed</t>
-  </si>
-  <si>
-    <t>variance.beta.Fixed</t>
-  </si>
-  <si>
-    <t>sd.beta.Fixed</t>
-  </si>
-  <si>
-    <t>beta.Random</t>
-  </si>
-  <si>
-    <t>variance.beta.Random</t>
-  </si>
-  <si>
-    <t>sd.beta.Random</t>
-  </si>
-  <si>
-    <t>Maternal age at delivery</t>
-  </si>
-  <si>
-    <t>18-30</t>
-  </si>
-  <si>
-    <t>1.59, 1.84</t>
-  </si>
-  <si>
-    <t>1.03, 1.87</t>
-  </si>
-  <si>
-    <t>Maternal educational level</t>
-  </si>
-  <si>
-    <t>Up to ordinary level</t>
-  </si>
-  <si>
-    <t>0.93, 1.04</t>
-  </si>
-  <si>
-    <t>0.84, 1.11</t>
-  </si>
-  <si>
-    <t>Up to advanced level</t>
-  </si>
-  <si>
-    <t>0.93, 1.06</t>
-  </si>
-  <si>
-    <t>0.86, 1.15</t>
-  </si>
-  <si>
-    <t>Maternal employment status</t>
-  </si>
-  <si>
-    <t>Unemployed</t>
-  </si>
-  <si>
-    <t>1.12, 1.23</t>
-  </si>
-  <si>
-    <t>1.03, 1.27</t>
-  </si>
-  <si>
-    <t>Wealth status</t>
-  </si>
-  <si>
-    <t>Lower</t>
-  </si>
-  <si>
-    <t>0.97, 1.26</t>
-  </si>
-  <si>
-    <t>0.85, 1.37</t>
-  </si>
-  <si>
-    <t>Middle</t>
-  </si>
-  <si>
-    <t>0.90, 1.18</t>
-  </si>
-  <si>
-    <t>Delivery mode</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>0.74, 0.89</t>
-  </si>
-  <si>
-    <t>Child’s gender</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>0.92, 1.00</t>
-  </si>
-  <si>
-    <t>Child’s birth order</t>
-  </si>
-  <si>
-    <t>Second</t>
-  </si>
-  <si>
-    <t>0.99, 3.14</t>
-  </si>
-  <si>
-    <t>Third or above</t>
-  </si>
-  <si>
-    <t>0.87, 2.50</t>
-  </si>
-  <si>
-    <t>Child’s birth weight</t>
-  </si>
-  <si>
-    <t>0.83, 0.98</t>
-  </si>
-  <si>
-    <t>0.80, 1.12</t>
-  </si>
-  <si>
-    <t>Child’s age at first supplementary feeding</t>
-  </si>
-  <si>
-    <t>&lt; 6 months</t>
-  </si>
-  <si>
-    <t>1.08, 3.31</t>
-  </si>
-  <si>
-    <t>Parity</t>
-  </si>
-  <si>
-    <t>3-4 children</t>
-  </si>
-  <si>
-    <t>0.96, 1.08</t>
-  </si>
-  <si>
-    <t>0.72, 1.44</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,14 +63,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -302,7 +109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -334,27 +141,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -386,24 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -579,93 +350,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variable name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Data Category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>HR.Fixed</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>95% CI F</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>LCI.Fixed</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>UCI.Fixed</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>HR.Random</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>95% CI R</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>LCI.Random</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>UCI.Random</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>beta.Fixed</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>variance.beta.Fixed</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>sd.beta.Fixed</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>beta.Random</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>variance.beta.Random</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>sd.beta.Random</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Maternal age at delivery</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>18-30</t>
+        </is>
       </c>
       <c r="C2">
         <v>1.72</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.59, 1.84</t>
+        </is>
       </c>
       <c r="E2">
         <v>1.59</v>
@@ -676,8 +467,10 @@
       <c r="G2">
         <v>1.39</v>
       </c>
-      <c r="H2" t="s">
-        <v>19</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1.03, 1.87</t>
+        </is>
       </c>
       <c r="I2">
         <v>1.03</v>
@@ -686,36 +479,42 @@
         <v>1.87</v>
       </c>
       <c r="K2">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="L2">
-        <v>1.4E-3</v>
+        <v>0.0014</v>
       </c>
       <c r="M2">
-        <v>3.73E-2</v>
+        <v>0.0373</v>
       </c>
       <c r="N2">
-        <v>0.32900000000000001</v>
+        <v>0.329</v>
       </c>
       <c r="O2">
-        <v>2.3099999999999999E-2</v>
+        <v>0.0231</v>
       </c>
       <c r="P2">
-        <v>0.15210000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
+        <v>0.1521</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Maternal educational level</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Up to ordinary level</t>
+        </is>
       </c>
       <c r="C3">
         <v>0.98</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.93, 1.04</t>
+        </is>
       </c>
       <c r="E3">
         <v>0.93</v>
@@ -726,46 +525,54 @@
       <c r="G3">
         <v>0.96</v>
       </c>
-      <c r="H3" t="s">
-        <v>23</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.84, 1.11</t>
+        </is>
       </c>
       <c r="I3">
         <v>0.84</v>
       </c>
       <c r="J3">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="K3">
         <v>-0.02</v>
       </c>
       <c r="L3">
-        <v>8.0000000000000004E-4</v>
+        <v>0.0008</v>
       </c>
       <c r="M3">
-        <v>2.8500000000000001E-2</v>
+        <v>0.0285</v>
       </c>
       <c r="N3">
-        <v>-4.1000000000000002E-2</v>
+        <v>-0.041</v>
       </c>
       <c r="O3">
-        <v>5.1000000000000004E-3</v>
+        <v>0.0051</v>
       </c>
       <c r="P3">
-        <v>7.1099999999999997E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
+        <v>0.0711</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Maternal educational level</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Up to advanced level</t>
+        </is>
       </c>
       <c r="C4">
         <v>0.99</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.93, 1.06</t>
+        </is>
       </c>
       <c r="E4">
         <v>0.93</v>
@@ -776,58 +583,68 @@
       <c r="G4">
         <v>0.99</v>
       </c>
-      <c r="H4" t="s">
-        <v>26</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.86, 1.15</t>
+        </is>
       </c>
       <c r="I4">
         <v>0.86</v>
       </c>
       <c r="J4">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="K4">
         <v>-0.01</v>
       </c>
       <c r="L4">
-        <v>1.1000000000000001E-3</v>
+        <v>0.0011</v>
       </c>
       <c r="M4">
-        <v>3.3399999999999999E-2</v>
+        <v>0.0334</v>
       </c>
       <c r="N4">
         <v>-0.01</v>
       </c>
       <c r="O4">
-        <v>5.4999999999999997E-3</v>
+        <v>0.0055</v>
       </c>
       <c r="P4">
-        <v>7.4099999999999999E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
+        <v>0.0741</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Maternal employment status</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Unemployed</t>
+        </is>
       </c>
       <c r="C5">
         <v>1.17</v>
       </c>
-      <c r="D5" t="s">
-        <v>29</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.12, 1.23</t>
+        </is>
       </c>
       <c r="E5">
-        <v>1.1200000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="F5">
         <v>1.23</v>
       </c>
       <c r="G5">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
+        <v>1.15</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1.03, 1.27</t>
+        </is>
       </c>
       <c r="I5">
         <v>1.03</v>
@@ -839,33 +656,39 @@
         <v>0.157</v>
       </c>
       <c r="L5">
-        <v>5.9999999999999995E-4</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="M5">
-        <v>2.3900000000000001E-2</v>
+        <v>0.0239</v>
       </c>
       <c r="N5">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="O5">
-        <v>2.8999999999999998E-3</v>
+        <v>0.0029</v>
       </c>
       <c r="P5">
-        <v>5.3400000000000003E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
+        <v>0.0534</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Wealth status</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lower</t>
+        </is>
       </c>
       <c r="C6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
+        <v>1.1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.97, 1.26</t>
+        </is>
       </c>
       <c r="E6">
         <v>0.97</v>
@@ -876,8 +699,10 @@
       <c r="G6">
         <v>1.08</v>
       </c>
-      <c r="H6" t="s">
-        <v>34</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.85, 1.37</t>
+        </is>
       </c>
       <c r="I6">
         <v>0.85</v>
@@ -886,36 +711,42 @@
         <v>1.37</v>
       </c>
       <c r="K6">
-        <v>9.5000000000000001E-2</v>
+        <v>0.095</v>
       </c>
       <c r="L6">
-        <v>4.4999999999999997E-3</v>
+        <v>0.0045</v>
       </c>
       <c r="M6">
-        <v>6.6699999999999995E-2</v>
+        <v>0.0667</v>
       </c>
       <c r="N6">
-        <v>7.6999999999999999E-2</v>
+        <v>0.077</v>
       </c>
       <c r="O6">
-        <v>1.4800000000000001E-2</v>
+        <v>0.0148</v>
       </c>
       <c r="P6">
-        <v>0.12180000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
+        <v>0.1218</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Wealth status</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Middle</t>
+        </is>
       </c>
       <c r="C7">
         <v>1.03</v>
       </c>
-      <c r="D7" t="s">
-        <v>36</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.90, 1.18</t>
+        </is>
       </c>
       <c r="E7">
         <v>0.9</v>
@@ -926,8 +757,10 @@
       <c r="G7">
         <v>1.03</v>
       </c>
-      <c r="H7" t="s">
-        <v>36</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.90, 1.18</t>
+        </is>
       </c>
       <c r="I7">
         <v>0.9</v>
@@ -939,33 +772,39 @@
         <v>0.03</v>
       </c>
       <c r="L7">
-        <v>4.7999999999999996E-3</v>
+        <v>0.0048</v>
       </c>
       <c r="M7">
-        <v>6.9099999999999995E-2</v>
+        <v>0.06909999999999999</v>
       </c>
       <c r="N7">
         <v>0.03</v>
       </c>
       <c r="O7">
-        <v>4.7999999999999996E-3</v>
+        <v>0.0048</v>
       </c>
       <c r="P7">
-        <v>6.9099999999999995E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
+        <v>0.06909999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Delivery mode</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
       </c>
       <c r="C8">
-        <v>0.81</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.74, 0.89</t>
+        </is>
       </c>
       <c r="E8">
         <v>0.74</v>
@@ -974,10 +813,12 @@
         <v>0.89</v>
       </c>
       <c r="G8">
-        <v>0.81</v>
-      </c>
-      <c r="H8" t="s">
-        <v>39</v>
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0.74, 0.89</t>
+        </is>
       </c>
       <c r="I8">
         <v>0.74</v>
@@ -986,36 +827,42 @@
         <v>0.89</v>
       </c>
       <c r="K8">
-        <v>-0.21099999999999999</v>
+        <v>-0.211</v>
       </c>
       <c r="L8">
-        <v>2.2000000000000001E-3</v>
+        <v>0.0022</v>
       </c>
       <c r="M8">
-        <v>4.7100000000000003E-2</v>
+        <v>0.0471</v>
       </c>
       <c r="N8">
-        <v>-0.21099999999999999</v>
+        <v>-0.211</v>
       </c>
       <c r="O8">
-        <v>2.2000000000000001E-3</v>
+        <v>0.0022</v>
       </c>
       <c r="P8">
-        <v>4.7100000000000003E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
+        <v>0.0471</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Child’s gender</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
       </c>
       <c r="C9">
         <v>0.96</v>
       </c>
-      <c r="D9" t="s">
-        <v>42</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.92, 1.00</t>
+        </is>
       </c>
       <c r="E9">
         <v>0.92</v>
@@ -1026,8 +873,10 @@
       <c r="G9">
         <v>0.96</v>
       </c>
-      <c r="H9" t="s">
-        <v>42</v>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.92, 1.00</t>
+        </is>
       </c>
       <c r="I9">
         <v>0.92</v>
@@ -1036,36 +885,42 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>-4.1000000000000002E-2</v>
+        <v>-0.041</v>
       </c>
       <c r="L9">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="M9">
-        <v>2.1299999999999999E-2</v>
+        <v>0.0213</v>
       </c>
       <c r="N9">
-        <v>-4.1000000000000002E-2</v>
+        <v>-0.041</v>
       </c>
       <c r="O9">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="P9">
-        <v>2.1299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
+        <v>0.0213</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Child’s birth order</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Second</t>
+        </is>
       </c>
       <c r="C10">
         <v>1.76</v>
       </c>
-      <c r="D10" t="s">
-        <v>45</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.99, 3.14</t>
+        </is>
       </c>
       <c r="E10">
         <v>0.99</v>
@@ -1076,8 +931,10 @@
       <c r="G10">
         <v>1.76</v>
       </c>
-      <c r="H10" t="s">
-        <v>45</v>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0.99, 3.14</t>
+        </is>
       </c>
       <c r="I10">
         <v>0.99</v>
@@ -1086,36 +943,42 @@
         <v>3.14</v>
       </c>
       <c r="K10">
-        <v>0.56499999999999995</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="L10">
-        <v>8.6699999999999999E-2</v>
+        <v>0.0867</v>
       </c>
       <c r="M10">
-        <v>0.29449999999999998</v>
+        <v>0.2945</v>
       </c>
       <c r="N10">
-        <v>0.56499999999999995</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="O10">
-        <v>8.6699999999999999E-2</v>
+        <v>0.0867</v>
       </c>
       <c r="P10">
-        <v>0.29449999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
+        <v>0.2945</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Child’s birth order</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Third or above</t>
+        </is>
       </c>
       <c r="C11">
         <v>1.47</v>
       </c>
-      <c r="D11" t="s">
-        <v>47</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.87, 2.50</t>
+        </is>
       </c>
       <c r="E11">
         <v>0.87</v>
@@ -1126,8 +989,10 @@
       <c r="G11">
         <v>1.47</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0.87, 2.50</t>
+        </is>
       </c>
       <c r="I11">
         <v>0.87</v>
@@ -1136,36 +1001,42 @@
         <v>2.5</v>
       </c>
       <c r="K11">
-        <v>0.38500000000000001</v>
+        <v>0.385</v>
       </c>
       <c r="L11">
-        <v>7.2499999999999995E-2</v>
+        <v>0.0725</v>
       </c>
       <c r="M11">
-        <v>0.26929999999999998</v>
+        <v>0.2693</v>
       </c>
       <c r="N11">
-        <v>0.38500000000000001</v>
+        <v>0.385</v>
       </c>
       <c r="O11">
-        <v>7.2499999999999995E-2</v>
+        <v>0.0725</v>
       </c>
       <c r="P11">
-        <v>0.26929999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
+        <v>0.2693</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Child’s birth weight</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
       </c>
       <c r="C12">
         <v>0.9</v>
       </c>
-      <c r="D12" t="s">
-        <v>49</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.83, 0.98</t>
+        </is>
       </c>
       <c r="E12">
         <v>0.83</v>
@@ -1176,46 +1047,54 @@
       <c r="G12">
         <v>0.95</v>
       </c>
-      <c r="H12" t="s">
-        <v>50</v>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0.80, 1.12</t>
+        </is>
       </c>
       <c r="I12">
         <v>0.8</v>
       </c>
       <c r="J12">
-        <v>1.1200000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="K12">
         <v>-0.105</v>
       </c>
       <c r="L12">
-        <v>1.8E-3</v>
+        <v>0.0018</v>
       </c>
       <c r="M12">
-        <v>4.24E-2</v>
+        <v>0.0424</v>
       </c>
       <c r="N12">
-        <v>-5.0999999999999997E-2</v>
+        <v>-0.051</v>
       </c>
       <c r="O12">
-        <v>7.4000000000000003E-3</v>
+        <v>0.0074</v>
       </c>
       <c r="P12">
-        <v>8.5800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
+        <v>0.0858</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Child’s age at first supplementary feeding</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>&lt; 6 months</t>
+        </is>
       </c>
       <c r="C13">
         <v>1.89</v>
       </c>
-      <c r="D13" t="s">
-        <v>53</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.08, 3.31</t>
+        </is>
       </c>
       <c r="E13">
         <v>1.08</v>
@@ -1226,8 +1105,10 @@
       <c r="G13">
         <v>1.89</v>
       </c>
-      <c r="H13" t="s">
-        <v>53</v>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1.08, 3.31</t>
+        </is>
       </c>
       <c r="I13">
         <v>1.08</v>
@@ -1236,36 +1117,42 @@
         <v>3.31</v>
       </c>
       <c r="K13">
-        <v>0.63700000000000001</v>
+        <v>0.637</v>
       </c>
       <c r="L13">
-        <v>8.1600000000000006E-2</v>
+        <v>0.08160000000000001</v>
       </c>
       <c r="M13">
-        <v>0.28570000000000001</v>
+        <v>0.2857</v>
       </c>
       <c r="N13">
-        <v>0.63700000000000001</v>
+        <v>0.637</v>
       </c>
       <c r="O13">
-        <v>8.1600000000000006E-2</v>
+        <v>0.08160000000000001</v>
       </c>
       <c r="P13">
-        <v>0.28570000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" t="s">
-        <v>55</v>
+        <v>0.2857</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Parity</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3-4 children</t>
+        </is>
       </c>
       <c r="C14">
         <v>1.02</v>
       </c>
-      <c r="D14" t="s">
-        <v>56</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.96, 1.08</t>
+        </is>
       </c>
       <c r="E14">
         <v>0.96</v>
@@ -1276,8 +1163,10 @@
       <c r="G14">
         <v>1.02</v>
       </c>
-      <c r="H14" t="s">
-        <v>57</v>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0.72, 1.44</t>
+        </is>
       </c>
       <c r="I14">
         <v>0.72</v>
@@ -1289,7 +1178,7 @@
         <v>0.02</v>
       </c>
       <c r="L14">
-        <v>8.9999999999999998E-4</v>
+        <v>0.0009</v>
       </c>
       <c r="M14">
         <v>0.03</v>
@@ -1298,10 +1187,10 @@
         <v>0.02</v>
       </c>
       <c r="O14">
-        <v>3.1300000000000001E-2</v>
+        <v>0.0313</v>
       </c>
       <c r="P14">
-        <v>0.17680000000000001</v>
+        <v>0.1768</v>
       </c>
     </row>
   </sheetData>
